--- a/medium alphabet/test_results_09_07.xlsx
+++ b/medium alphabet/test_results_09_07.xlsx
@@ -365,7 +365,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
